--- a/uploads/Lista_edcore.xlsx
+++ b/uploads/Lista_edcore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8513EE-E387-481F-BE4D-3ACBE8C09D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E9B063-65EC-4D1B-A054-B4ADC7C5B656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C5AD1423-2BCD-46B9-AC77-C3709E351FC2}"/>
   </bookViews>
@@ -182,20 +182,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,7 +534,7 @@
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,15 +546,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>21011182</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -578,10 +576,10 @@
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="2"/>
@@ -590,10 +588,10 @@
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
@@ -602,10 +600,10 @@
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
@@ -622,20 +620,23 @@
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="8">
+        <v>21011182</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -644,10 +645,10 @@
       <c r="B11" s="10">
         <v>21011020</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -656,10 +657,10 @@
       <c r="B12" s="8">
         <v>20011036</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -668,10 +669,10 @@
       <c r="B13" s="8">
         <v>19011317</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -680,10 +681,10 @@
       <c r="B14" s="8">
         <v>21011021</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -692,10 +693,10 @@
       <c r="B15" s="8">
         <v>21011298</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -716,10 +717,10 @@
       <c r="B17" s="8">
         <v>21011017</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -728,13 +729,19 @@
       <c r="B18" s="8">
         <v>21011669</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
@@ -742,12 +749,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/Lista_edcore.xlsx
+++ b/uploads/Lista_edcore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E9B063-65EC-4D1B-A054-B4ADC7C5B656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5592400-B704-41A9-B1AD-3F88BF6E9520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C5AD1423-2BCD-46B9-AC77-C3709E351FC2}"/>
   </bookViews>
@@ -182,20 +182,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A369A26-1039-4584-93A6-8592CF4E5216}">
-  <dimension ref="A2:G18"/>
+  <dimension ref="A2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,12 +547,12 @@
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -576,10 +576,10 @@
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="2"/>
@@ -588,10 +588,10 @@
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
@@ -600,10 +600,10 @@
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
@@ -620,10 +620,10 @@
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -633,10 +633,10 @@
       <c r="B10" s="8">
         <v>21011182</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -645,10 +645,10 @@
       <c r="B11" s="10">
         <v>21011020</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -657,10 +657,10 @@
       <c r="B12" s="8">
         <v>20011036</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -669,10 +669,10 @@
       <c r="B13" s="8">
         <v>19011317</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -681,10 +681,10 @@
       <c r="B14" s="8">
         <v>21011021</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -693,10 +693,10 @@
       <c r="B15" s="8">
         <v>21011298</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -717,10 +717,10 @@
       <c r="B17" s="8">
         <v>21011017</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -729,19 +729,20 @@
       <c r="B18" s="8">
         <v>21011669</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
+  <mergeCells count="14">
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
@@ -749,6 +750,12 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/Lista_edcore.xlsx
+++ b/uploads/Lista_edcore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5592400-B704-41A9-B1AD-3F88BF6E9520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBEC831-7E8B-49A8-8475-C17945D5C6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C5AD1423-2BCD-46B9-AC77-C3709E351FC2}"/>
   </bookViews>
@@ -151,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,22 +179,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -534,7 +528,7 @@
   <dimension ref="A2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:D19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,12 +541,12 @@
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -576,10 +570,10 @@
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="2"/>
@@ -588,10 +582,10 @@
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
@@ -600,10 +594,10 @@
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
@@ -617,20 +611,20 @@
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="11">
         <v>21011182</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -639,10 +633,10 @@
       <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>2</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>21011020</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -651,97 +645,103 @@
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>3</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="11">
         <v>20011036</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <v>4</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="11">
         <v>19011317</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="6">
         <v>5</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="11">
         <v>21011021</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="6">
         <v>6</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="11">
         <v>21011298</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="6">
         <v>7</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="11">
         <v>21011297</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="6">
         <v>8</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="11">
         <v>21011017</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="6">
         <v>9</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="11">
         <v>21011669</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C11:D11"/>
@@ -750,12 +750,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
